--- a/Datasheets-Libs/Lixie-Uhr-Bestellliste.xlsx
+++ b/Datasheets-Libs/Lixie-Uhr-Bestellliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erena\OneDrive\Desktop\Lixie-Uhr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samir\Documents\GitHub\lixie\Datasheets-Libs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C0A09D1-7233-4F71-B72D-CC1659DA8108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC30A26-6C0E-4D54-BBB1-AEFDC8E36C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$G$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$G$12</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Tabelle1!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
   <si>
     <t>Höhere technische Bundeslehr- und Versuchsanstalt Rankweil</t>
   </si>
@@ -97,31 +97,145 @@
     <t>APA102C</t>
   </si>
   <si>
-    <t>SMD</t>
-  </si>
-  <si>
     <t>C1 … C20</t>
   </si>
   <si>
     <t>100n</t>
   </si>
   <si>
-    <t>C21</t>
-  </si>
-  <si>
-    <t>1mF</t>
-  </si>
-  <si>
-    <t>THT</t>
-  </si>
-  <si>
     <t>ATTiny406</t>
   </si>
   <si>
-    <t>VQFN</t>
-  </si>
-  <si>
     <t>IC1</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>FT232RL</t>
+  </si>
+  <si>
+    <t>0u1</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>STÜCKLISTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STÜCKLISTE </t>
+  </si>
+  <si>
+    <t>330R</t>
+  </si>
+  <si>
+    <t>Plexigläser</t>
+  </si>
+  <si>
+    <t>34mm X 70mm X 2mm</t>
+  </si>
+  <si>
+    <t>Distanzbolzen</t>
+  </si>
+  <si>
+    <t>M3 25mm</t>
+  </si>
+  <si>
+    <t>Gummifüße</t>
+  </si>
+  <si>
+    <t>Anderes</t>
+  </si>
+  <si>
+    <t>4 Polig</t>
+  </si>
+  <si>
+    <t>PCB Buchse</t>
+  </si>
+  <si>
+    <t>C0805</t>
+  </si>
+  <si>
+    <t>C21 … C24</t>
+  </si>
+  <si>
+    <t>153CLV-0405</t>
+  </si>
+  <si>
+    <t>R1 … R4</t>
+  </si>
+  <si>
+    <t>0R</t>
+  </si>
+  <si>
+    <t>R1206</t>
+  </si>
+  <si>
+    <t>SOIC127P1032X265-20N</t>
+  </si>
+  <si>
+    <t>SSOP28</t>
+  </si>
+  <si>
+    <t>R3, R4</t>
+  </si>
+  <si>
+    <t>27R</t>
+  </si>
+  <si>
+    <t>R1, R2, R7</t>
+  </si>
+  <si>
+    <t>R0805</t>
+  </si>
+  <si>
+    <t>R5, R6</t>
+  </si>
+  <si>
+    <t>4u7</t>
+  </si>
+  <si>
+    <t>C2, C3</t>
+  </si>
+  <si>
+    <t>WR-COM Mini USB 2.0 Type B SMT Horizontal 5 Contacts</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>MF-SMDF200</t>
+  </si>
+  <si>
+    <t>MF-SMDF Series - PRC Resettable Fuses</t>
+  </si>
+  <si>
+    <t>MF-SMDF050</t>
+  </si>
+  <si>
+    <t>PIN4</t>
+  </si>
+  <si>
+    <t>PIN4_P</t>
+  </si>
+  <si>
+    <t>U$3</t>
+  </si>
+  <si>
+    <t>TASTER_SMD</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>Taster SMD</t>
   </si>
   <si>
     <r>
@@ -164,6 +278,18 @@
       </rPr>
       <t>V01</t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">         22203/GAR</t>
+    </r>
+  </si>
+  <si>
+    <t>SON160P500X500X140-6N</t>
   </si>
   <si>
     <r>
@@ -206,47 +332,14 @@
       </rPr>
       <t>V01</t>
     </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Projekt:  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Lixie_Uhr_Versorgung </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  Version:  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>V01</t>
+      <t xml:space="preserve">         22203/GAR</t>
     </r>
   </si>
   <si>
@@ -288,104 +381,24 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>V01</t>
+      <t xml:space="preserve">V01         </t>
     </r>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>100uF</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>330uF</t>
-  </si>
-  <si>
-    <t>IC2</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>1N5819-B</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>MS42</t>
-  </si>
-  <si>
-    <t>LM2575-5.0T</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>FT232RL</t>
-  </si>
-  <si>
-    <t>SDM</t>
-  </si>
-  <si>
-    <t>0u1</t>
-  </si>
-  <si>
-    <t>R1…R2</t>
-  </si>
-  <si>
-    <t>D1…D2</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>Mini USB</t>
-  </si>
-  <si>
-    <t>STÜCKLISTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STÜCKLISTE </t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>330R</t>
-  </si>
-  <si>
-    <t>Grün</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>Plexigläser</t>
-  </si>
-  <si>
-    <t>34mm X 70mm X 2mm</t>
-  </si>
-  <si>
-    <t>Distanzbolzen</t>
-  </si>
-  <si>
-    <t>M3 25mm</t>
-  </si>
-  <si>
-    <t>Gummifüße</t>
-  </si>
-  <si>
-    <t>Anderes</t>
-  </si>
-  <si>
-    <t>4 Polig</t>
-  </si>
-  <si>
-    <t>PCB Buchse</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>22203/GAR</t>
+    </r>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Jumper mit 4 Stiftleisten</t>
   </si>
 </sst>
 </file>
@@ -396,7 +409,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="&quot;SUMME &quot;#,##0.00\ _€;\-#,##0.00\ _€"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -688,8 +701,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="57">
+  <fills count="56">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -985,14 +1005,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1277,17 +1291,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1375,7 +1378,7 @@
     <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="54" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1468,16 +1471,31 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="55" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="55" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="56" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="55" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="55" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="55" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="55" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="55" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1489,30 +1507,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="55" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="55" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="55" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="55" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="55" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="84">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1668,7 +1675,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1411939" cy="670941"/>
@@ -1712,51 +1719,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1411939" cy="670941"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Grafik 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C77160F-12B9-4907-A778-364660D2C89E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="12111" t="22923" r="12340" b="23226"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6858002" y="0"/>
-          <a:ext cx="1411939" cy="670941"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1411939" cy="670941"/>
@@ -2120,10 +2083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2132,18 +2095,18 @@
     <col min="2" max="2" width="15.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="29.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="4" customWidth="1"/>
     <col min="6" max="6" width="10" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12" style="4" customWidth="1"/>
     <col min="8" max="8" width="6.42578125" style="5" customWidth="1"/>
     <col min="9" max="9" width="8.28515625" style="5" customWidth="1"/>
     <col min="10" max="10" width="21.85546875" style="4" customWidth="1"/>
     <col min="11" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
@@ -2157,7 +2120,7 @@
       </c>
       <c r="J1" s="18"/>
     </row>
-    <row r="2" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -2171,24 +2134,24 @@
       </c>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43">
-        <f>SUM(I7:I654)</f>
-        <v>0.1</v>
-      </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="45"/>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="40">
+        <f>SUM(I7:I639)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
       <c r="J3" s="19"/>
     </row>
-    <row r="4" spans="1:11" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -2220,21 +2183,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-    </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+    </row>
+    <row r="6" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="2"/>
       <c r="C6" s="14"/>
@@ -2248,25 +2211,22 @@
         <v>0</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+    </row>
+    <row r="8" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -2280,7 +2240,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2288,21 +2248,21 @@
       <c r="I8" s="11"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="13">
         <v>200</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2310,244 +2270,261 @@
       <c r="I9" s="11"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>4</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="13">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>5</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="13">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="10"/>
       <c r="I11" s="11"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="39"/>
+    </row>
+    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="40">
+        <f>SUM(I21:I655)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="41"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
-        <v>17</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="13">
+      <c r="F18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="50"/>
-    </row>
-    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21" t="s">
+      <c r="J18" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="11">
+        <f>C20*H20</f>
         <v>0</v>
       </c>
-      <c r="J17" s="18"/>
-    </row>
-    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="23" t="s">
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+    </row>
+    <row r="22" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="13">
         <v>1</v>
       </c>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43">
-        <f>SUM(I23:I670)</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="19"/>
-    </row>
-    <row r="20" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="9">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="16"/>
+      <c r="D22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="11">
-        <f>C22*H22</f>
-        <v>0</v>
-      </c>
+      <c r="I22" s="11"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="13">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
-        <v>2</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>4</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>23</v>
       </c>
       <c r="C24" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2555,21 +2532,21 @@
       <c r="I24" s="11"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C25" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2577,21 +2554,21 @@
       <c r="I25" s="11"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
-        <v>4</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>33</v>
+        <v>6</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C26" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -2599,21 +2576,21 @@
       <c r="I26" s="11"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C27" s="13">
         <v>2</v>
       </c>
-      <c r="D27" s="37" t="s">
-        <v>52</v>
+      <c r="D27" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -2621,599 +2598,354 @@
       <c r="I27" s="11"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C28" s="13">
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>41</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="10"/>
       <c r="I28" s="11"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
+        <v>9</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="13">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
-        <v>7</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>61</v>
       </c>
       <c r="C30" s="13">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="10"/>
       <c r="I30" s="11"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="J30" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="9">
+        <v>11</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="13">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+    </row>
+    <row r="33" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
+        <v>12</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="13">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>65100516121</v>
+      </c>
+      <c r="E33" s="51">
+        <v>65100516121</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="39"/>
+    </row>
+    <row r="37" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" s="18"/>
+    </row>
+    <row r="38" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" s="18"/>
+    </row>
+    <row r="39" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="26">
+        <f>SUM(I43:I687)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="27"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="19"/>
+    </row>
+    <row r="40" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="50"/>
-    </row>
-    <row r="34" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="J34" s="18"/>
-    </row>
-    <row r="35" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="23" t="s">
+      <c r="H40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="9">
         <v>1</v>
-      </c>
-      <c r="J35" s="18"/>
-    </row>
-    <row r="36" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="26">
-        <f>SUM(I40:I686)</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="27"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="19"/>
-    </row>
-    <row r="37" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="9">
-        <v>1</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="11">
-        <f>C39*H39</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="9">
-        <v>2</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="13">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="9">
-        <v>3</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="13">
-        <v>1</v>
+      <c r="C42" s="36" t="s">
+        <v>69</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="16"/>
       <c r="G42" s="2"/>
       <c r="H42" s="10"/>
-      <c r="I42" s="11"/>
+      <c r="I42" s="11">
+        <f>C42*H42</f>
+        <v>0</v>
+      </c>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
+        <v>2</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="13">
         <v>4</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="13">
-        <v>1</v>
-      </c>
       <c r="D43" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="10"/>
       <c r="I43" s="11"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="13">
-        <v>1</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="10"/>
       <c r="I44" s="11"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C45" s="13">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="10"/>
       <c r="I45" s="11"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="9">
-        <v>7</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="36" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="25"/>
-    </row>
-    <row r="50" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="J50" s="18"/>
-    </row>
-    <row r="51" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J51" s="18"/>
-    </row>
-    <row r="52" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A52" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="26">
-        <f>SUM(I56:I702)</f>
-        <v>0</v>
-      </c>
-      <c r="H52" s="27"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="19"/>
-    </row>
-    <row r="53" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="9">
-        <v>1</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="38">
-        <v>40</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="11">
-        <f>C55*H55</f>
-        <v>0</v>
-      </c>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="9">
-        <v>2</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" s="13">
-        <v>4</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="9">
-        <v>3</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57" s="13">
-        <v>4</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="9">
-        <v>4</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="13">
-        <v>12</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="9">
-        <v>5</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="9">
-        <v>6</v>
-      </c>
-      <c r="B60" s="39"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="25"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A13:J13"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A12:J12"/>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A19:J19"/>
     <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A32:J32"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3254,6 +2986,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B43C678D229DE24B96AF021D9ECC855C" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="286a15b9af820f7385f31a9b54db680e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e4d44552-ddd9-4e3d-b8a8-e59f975c04d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8e82ab28fe8aa0b7727de41b6639b624" ns2:_="">
     <xsd:import namespace="e4d44552-ddd9-4e3d-b8a8-e59f975c04d6"/>
@@ -3385,22 +3132,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{866A4294-3582-458B-9610-8F865127EDC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A24FE4B-D46A-4FED-B08C-25D61171B1A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3F43F11-BA25-41AF-941F-8652560B293C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3416,21 +3165,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A24FE4B-D46A-4FED-B08C-25D61171B1A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{866A4294-3582-458B-9610-8F865127EDC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Datasheets-Libs/Lixie-Uhr-Bestellliste.xlsx
+++ b/Datasheets-Libs/Lixie-Uhr-Bestellliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samir\Documents\GitHub\lixie\Datasheets-Libs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samir\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC30A26-6C0E-4D54-BBB1-AEFDC8E36C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEB32AF-C1F7-48BF-97A7-B08EC152C109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1845" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="85">
   <si>
     <t>Höhere technische Bundeslehr- und Versuchsanstalt Rankweil</t>
   </si>
@@ -400,6 +400,48 @@
   <si>
     <t>Jumper mit 4 Stiftleisten</t>
   </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>BL-HBGR32L-3-TRB-8</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/de/products/detail/american-bright-optoelectronics-corporation/BL-HBGR32L-3-TRB-8/9817409</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.at/at/de/smd-vielschicht-keramikkondensator-100n-10--x7r-g0805-100n-p31879.html?r=1</t>
+  </si>
+  <si>
+    <t>Reichelt</t>
+  </si>
+  <si>
+    <t>X7R-G0805 100N</t>
+  </si>
+  <si>
+    <t>Conrad</t>
+  </si>
+  <si>
+    <t>402222 - 62</t>
+  </si>
+  <si>
+    <t>https://www.conrad.at/de/p/yageo-rc1206jr-070rl-kohleschicht-widerstand-0-smd-1206-0-25-w-0-200-ppm-1-st-tape-cut-402222.html</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/de/products/detail/microchip-technology/ATTINY406-SN/9947552?s=N4IgTCBcDaIIIBUEEkByBNALABgGwFoBlVfVAERAF0BfIA</t>
+  </si>
+  <si>
+    <t>ATTINY406-SN-ND</t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/smd-widerstande/8662776</t>
+  </si>
+  <si>
+    <t>RS-Online</t>
+  </si>
+  <si>
+    <t>866-2776</t>
+  </si>
 </sst>
 </file>
 
@@ -409,7 +451,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="&quot;SUMME &quot;#,##0.00\ _€;\-#,##0.00\ _€"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -707,6 +749,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="56">
@@ -1292,7 +1340,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="84">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1377,12 +1425,10 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="54" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1440,9 +1486,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="55" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="55" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1474,6 +1517,15 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="55" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1507,21 +1559,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="55" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="55" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="12" xfId="84" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="84">
+  <cellStyles count="85">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent2" xfId="2" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent3" xfId="3" builtinId="38" customBuiltin="1"/>
@@ -1582,6 +1640,7 @@
     <cellStyle name="Erklärender Text 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
     <cellStyle name="Gut" xfId="59" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Gut 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Link" xfId="84" builtinId="8"/>
     <cellStyle name="Neutral" xfId="61" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Neutral 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
     <cellStyle name="Notiz" xfId="63" builtinId="10" customBuiltin="1"/>
@@ -1661,8 +1720,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7698443" y="0"/>
-          <a:ext cx="1411939" cy="670941"/>
+          <a:off x="7545459" y="0"/>
+          <a:ext cx="1411939" cy="667043"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2085,852 +2144,912 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12" style="4" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="5.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="53" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="18"/>
+      <c r="J1" s="49"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="23" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="18"/>
+      <c r="J2" s="49"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="40">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="41">
         <f>SUM(I7:I639)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="19"/>
-    </row>
-    <row r="4" spans="1:10" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+        <v>135.86000000000001</v>
+      </c>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="50"/>
+    </row>
+    <row r="4" spans="1:10" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-    </row>
-    <row r="6" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+    </row>
+    <row r="6" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10">
         <f>C6*H6</f>
         <v>0</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="36"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-    </row>
-    <row r="8" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+    </row>
+    <row r="8" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>200</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
+      <c r="F8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I8" s="10">
+        <v>115.48</v>
+      </c>
+      <c r="J8" s="54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>200</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1.92</v>
+      </c>
+      <c r="J9" s="54" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>4</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>40</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="36"/>
+    </row>
+    <row r="11" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
         <v>5</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="13">
-        <v>40</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="12">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="I11" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="J11" s="54" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
     </row>
     <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="21" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="18"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="23" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="J16" s="18"/>
+      <c r="J16" s="49"/>
     </row>
     <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="40">
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="41">
         <f>SUM(I21:I655)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="19"/>
+        <v>10.96</v>
+      </c>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="50"/>
     </row>
     <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>1</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11">
+      <c r="B20" s="1"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10">
         <f>C20*H20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="1"/>
+      <c r="J20" s="36"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-    </row>
-    <row r="22" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="9">
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+    </row>
+    <row r="22" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
         <v>2</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <v>1</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="55">
+        <v>1.01</v>
+      </c>
+      <c r="I22" s="55">
+        <v>1.01</v>
+      </c>
+      <c r="J22" s="54" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>3</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="12">
         <v>1</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="9">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="36"/>
+    </row>
+    <row r="24" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
         <v>4</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="12">
         <v>5</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="9">
+      <c r="F24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="J24" s="54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
         <v>5</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="12">
         <v>2</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="9">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="I25" s="10">
+        <v>9.9</v>
+      </c>
+      <c r="J25" s="54" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>6</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="12">
         <v>3</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="36"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>7</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="12">
         <v>2</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="36"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>8</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="12">
         <v>2</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="36"/>
     </row>
     <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>9</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="12">
         <v>1</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="51" t="s">
+      <c r="E29" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="49" t="s">
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="35" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="9">
+      <c r="A30" s="8">
         <v>10</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="12">
         <v>1</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="1" t="s">
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="36" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>11</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="12">
         <v>1</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="52" t="s">
+      <c r="E31" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="1" t="s">
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="36" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
     </row>
     <row r="33" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="9">
+      <c r="A33" s="8">
         <v>12</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="12">
         <v>1</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>65100516121</v>
       </c>
-      <c r="E33" s="51">
+      <c r="E33" s="37">
         <v>65100516121</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="50" t="s">
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="36" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="39"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="40"/>
     </row>
     <row r="37" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="21" t="s">
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="J37" s="18"/>
+      <c r="J37" s="49"/>
     </row>
     <row r="38" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="23" t="s">
+      <c r="A38" s="21"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="J38" s="18"/>
+      <c r="J38" s="49"/>
     </row>
     <row r="39" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="26">
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="24">
         <f>SUM(I43:I687)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="27"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="19"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="50"/>
     </row>
     <row r="40" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="G40" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I40" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="J40" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="51"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="9">
+      <c r="A42" s="8">
         <v>1</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="11">
+      <c r="E42" s="1"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="10">
         <f>C42*H42</f>
         <v>0</v>
       </c>
-      <c r="J42" s="1"/>
+      <c r="J42" s="36"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="9">
+      <c r="A43" s="8">
         <v>2</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="12">
         <v>4</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="36"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="9">
+      <c r="A44" s="8">
         <v>3</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="12">
         <v>4</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="36"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="9">
+      <c r="A45" s="8">
         <v>4</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="12">
         <v>20</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="36"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="35" t="s">
+      <c r="A46" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="25"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2948,12 +3067,20 @@
     <mergeCell ref="A32:J32"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J9" r:id="rId1" xr:uid="{51C99944-AD0D-4053-815F-8742918F97F6}"/>
+    <hyperlink ref="J8" r:id="rId2" xr:uid="{A9B99C66-CF89-485F-8D9C-43FD7D66815A}"/>
+    <hyperlink ref="J11" r:id="rId3" xr:uid="{A99E8DDB-E1C0-4824-A36C-889FA9D4F321}"/>
+    <hyperlink ref="J22" r:id="rId4" xr:uid="{649BD4EC-2CFA-4544-B257-E830C8FD7F61}"/>
+    <hyperlink ref="J24" r:id="rId5" xr:uid="{48495359-6427-44C9-8974-3238D9609C04}"/>
+    <hyperlink ref="J25" r:id="rId6" xr:uid="{781ABC3E-EC35-40EF-8378-F1E51E95D4E6}"/>
+  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>Seite &amp;P von &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -2995,12 +3122,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B43C678D229DE24B96AF021D9ECC855C" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="286a15b9af820f7385f31a9b54db680e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e4d44552-ddd9-4e3d-b8a8-e59f975c04d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8e82ab28fe8aa0b7727de41b6639b624" ns2:_="">
     <xsd:import namespace="e4d44552-ddd9-4e3d-b8a8-e59f975c04d6"/>
@@ -3132,6 +3253,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{866A4294-3582-458B-9610-8F865127EDC3}">
   <ds:schemaRefs>
@@ -3141,15 +3268,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A24FE4B-D46A-4FED-B08C-25D61171B1A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3F43F11-BA25-41AF-941F-8652560B293C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3165,4 +3283,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A24FE4B-D46A-4FED-B08C-25D61171B1A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Datasheets-Libs/Lixie-Uhr-Bestellliste.xlsx
+++ b/Datasheets-Libs/Lixie-Uhr-Bestellliste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samir\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samir\Documents\GitHub\lixie\Datasheets-Libs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEB32AF-C1F7-48BF-97A7-B08EC152C109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED707446-55FB-40E5-A4CA-8E4E7F2ABDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1845" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
   <si>
     <t>Höhere technische Bundeslehr- und Versuchsanstalt Rankweil</t>
   </si>
@@ -205,18 +205,12 @@
     <t>C2, C3</t>
   </si>
   <si>
-    <t>WR-COM Mini USB 2.0 Type B SMT Horizontal 5 Contacts</t>
-  </si>
-  <si>
     <t>F1</t>
   </si>
   <si>
     <t>MF-SMDF200</t>
   </si>
   <si>
-    <t>MF-SMDF Series - PRC Resettable Fuses</t>
-  </si>
-  <si>
     <t>MF-SMDF050</t>
   </si>
   <si>
@@ -233,9 +227,6 @@
   </si>
   <si>
     <t>S1</t>
-  </si>
-  <si>
-    <t>Taster SMD</t>
   </si>
   <si>
     <r>
@@ -398,9 +389,6 @@
     <t>80</t>
   </si>
   <si>
-    <t>Jumper mit 4 Stiftleisten</t>
-  </si>
-  <si>
     <t>Digikey</t>
   </si>
   <si>
@@ -441,6 +429,63 @@
   </si>
   <si>
     <t>866-2776</t>
+  </si>
+  <si>
+    <t>evtl. Magazinuer</t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/smd-widerstande/2232186</t>
+  </si>
+  <si>
+    <t>223-2186</t>
+  </si>
+  <si>
+    <t>223-0354</t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/smd-widerstande/2230354</t>
+  </si>
+  <si>
+    <t>https://www.mouser.at/ProductDetail/Bourns/MF-SMDF200-2?qs=NmEazmuVvbUP9opuVlBLcQ%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">652-MF-SMDF200-2 </t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>https://www.conrad.at/de/p/mentor-1254-1004-drucktaster-12-v-dc-ac-0-05-a-1-x-aus-ein-tastend-1-st-183373.html</t>
+  </si>
+  <si>
+    <t>183373 - 62</t>
+  </si>
+  <si>
+    <t>1581023 - 62</t>
+  </si>
+  <si>
+    <t>https://www.mouser.at/ProductDetail/Wurth-Elektronik/65100516121?qs=rS3zZhy2AQPLyCguT204Og%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">710-65100516121 </t>
+  </si>
+  <si>
+    <t>ebay</t>
+  </si>
+  <si>
+    <t>https://www.ebay.de/itm/273905075025?hash=item3fc603c351:g:KMEAAOSwMs9dExXM</t>
+  </si>
+  <si>
+    <t>nr.: 273905075025</t>
+  </si>
+  <si>
+    <t>https://www.conrad.at/de/p/tru-components-stiftleiste-standard-anzahl-reihen-1-polzahl-je-reihe-5-1581023-1-st-1581023.html</t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/aluminium-elektrolytkondensatoren/7083513</t>
+  </si>
+  <si>
+    <t>708-3513</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1099,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1339,6 +1384,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1427,7 +1485,7 @@
     <xf numFmtId="0" fontId="40" fillId="54" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1518,14 +1576,30 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="55" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="55" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="12" xfId="84" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="55" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1559,25 +1633,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="55" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="12" xfId="84" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="55" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="24" xfId="84" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="12" xfId="84" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2142,10 +2235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2156,14 +2249,15 @@
     <col min="4" max="4" width="29.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="10" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19" style="3" customWidth="1"/>
     <col min="8" max="8" width="6.140625" style="4" customWidth="1"/>
     <col min="9" max="9" width="8.28515625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="53" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="2"/>
+    <col min="10" max="10" width="21.85546875" style="41" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="55"/>
+    <col min="12" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
@@ -2177,9 +2271,9 @@
       <c r="I1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="49"/>
-    </row>
-    <row r="2" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="37"/>
+    </row>
+    <row r="2" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="17"/>
       <c r="C2" s="18"/>
@@ -2191,26 +2285,26 @@
       <c r="I2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="49"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="41">
+      <c r="J2" s="37"/>
+    </row>
+    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="47">
         <f>SUM(I7:I639)</f>
-        <v>135.86000000000001</v>
-      </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="50"/>
-    </row>
-    <row r="4" spans="1:10" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+        <v>158.51000000000002</v>
+      </c>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="38"/>
+    </row>
+    <row r="4" spans="1:11" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2241,22 +2335,24 @@
       <c r="J4" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="44" t="s">
+      <c r="K4" s="56"/>
+    </row>
+    <row r="5" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-    </row>
-    <row r="6" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="56"/>
+    </row>
+    <row r="6" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="1"/>
       <c r="C6" s="13"/>
@@ -2269,23 +2365,23 @@
         <f>C6*H6</f>
         <v>0</v>
       </c>
-      <c r="J6" s="36"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
+      <c r="J6" s="35"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-    </row>
-    <row r="8" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+    </row>
+    <row r="8" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -2299,13 +2395,13 @@
         <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H8" s="9">
         <v>0.57999999999999996</v>
@@ -2313,11 +2409,11 @@
       <c r="I8" s="10">
         <v>115.48</v>
       </c>
-      <c r="J8" s="54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="J8" s="42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -2334,10 +2430,10 @@
         <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H9" s="9">
         <v>8.9999999999999993E-3</v>
@@ -2345,11 +2441,11 @@
       <c r="I9" s="9">
         <v>1.92</v>
       </c>
-      <c r="J9" s="54" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J9" s="42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -2362,16 +2458,26 @@
       <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="36"/>
-    </row>
-    <row r="11" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="F10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="J10" s="42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -2388,10 +2494,10 @@
         <v>44</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H11" s="9">
         <v>0.15</v>
@@ -2399,39 +2505,39 @@
       <c r="I11" s="10">
         <v>7.5</v>
       </c>
-      <c r="J11" s="54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
+      <c r="J11" s="42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-    </row>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+    </row>
+    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
-    </row>
-    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="46"/>
+    </row>
+    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>29</v>
       </c>
@@ -2445,9 +2551,9 @@
       <c r="I15" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="49"/>
-    </row>
-    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="J15" s="37"/>
+    </row>
+    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
@@ -2459,26 +2565,26 @@
       <c r="I16" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="J16" s="49"/>
-    </row>
-    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="41">
+      <c r="J16" s="37"/>
+    </row>
+    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="47">
         <f>SUM(I21:I655)</f>
-        <v>10.96</v>
-      </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="50"/>
-    </row>
-    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+        <v>33.559999999999995</v>
+      </c>
+      <c r="H17" s="48"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="38"/>
+    </row>
+    <row r="18" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>2</v>
       </c>
@@ -2510,21 +2616,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="44" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>1</v>
       </c>
@@ -2539,23 +2645,23 @@
         <f>C20*H20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="44" t="s">
+      <c r="J20" s="35"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-    </row>
-    <row r="22" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+    </row>
+    <row r="22" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>2</v>
       </c>
@@ -2572,22 +2678,22 @@
         <v>45</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" s="55">
+        <v>77</v>
+      </c>
+      <c r="H22" s="43">
         <v>1.01</v>
       </c>
-      <c r="I22" s="55">
+      <c r="I22" s="43">
         <v>1.01</v>
       </c>
-      <c r="J22" s="54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J22" s="42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>3</v>
       </c>
@@ -2603,45 +2709,55 @@
       <c r="E23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="36"/>
-    </row>
-    <row r="24" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="F23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="61">
+        <v>2.9</v>
+      </c>
+      <c r="I23" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="J23" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>4</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="63">
         <v>5</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H24" s="9">
+      <c r="F24" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="65">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="66">
         <v>0.05</v>
       </c>
-      <c r="J24" s="54" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="J24" s="67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>5</v>
       </c>
@@ -2658,10 +2774,10 @@
         <v>44</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H25" s="9">
         <v>9.9000000000000005E-2</v>
@@ -2669,11 +2785,14 @@
       <c r="I25" s="10">
         <v>9.9</v>
       </c>
-      <c r="J25" s="54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J25" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" s="68" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>6</v>
       </c>
@@ -2689,13 +2808,26 @@
       <c r="E26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="I26" s="10">
+        <v>3</v>
+      </c>
+      <c r="J26" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26" s="68" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>7</v>
       </c>
@@ -2711,13 +2843,26 @@
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="36"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="9">
+        <v>1.01E-2</v>
+      </c>
+      <c r="I27" s="10">
+        <v>5.05</v>
+      </c>
+      <c r="J27" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="K27" s="68" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>8</v>
       </c>
@@ -2733,99 +2878,139 @@
       <c r="E28" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="36"/>
-    </row>
-    <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F28" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="10">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="I28" s="10">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="J28" s="42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0.48</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0.48</v>
+      </c>
+      <c r="J29" s="58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>10</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C30" s="12">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I30" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="J30" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="K30" s="68" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>11</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31" s="12">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0.73</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0.73</v>
+      </c>
+      <c r="J31" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="K31" s="68" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-    </row>
-    <row r="33" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+    </row>
+    <row r="33" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>12</v>
       </c>
@@ -2838,30 +3023,38 @@
       <c r="D33" s="1">
         <v>65100516121</v>
       </c>
-      <c r="E33" s="37">
+      <c r="E33" s="36">
         <v>65100516121</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="36" t="s">
-        <v>54</v>
+      <c r="F33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33" s="9">
+        <v>1.41</v>
+      </c>
+      <c r="I33" s="10">
+        <v>1.41</v>
+      </c>
+      <c r="J33" s="42" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="40"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="46"/>
     </row>
     <row r="37" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
@@ -2877,7 +3070,7 @@
       <c r="I37" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="J37" s="49"/>
+      <c r="J37" s="37"/>
     </row>
     <row r="38" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
@@ -2891,11 +3084,11 @@
       <c r="I38" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="J38" s="49"/>
+      <c r="J38" s="37"/>
     </row>
     <row r="39" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
@@ -2908,7 +3101,7 @@
       </c>
       <c r="H39" s="25"/>
       <c r="I39" s="26"/>
-      <c r="J39" s="50"/>
+      <c r="J39" s="38"/>
     </row>
     <row r="40" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
@@ -2954,7 +3147,7 @@
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
       <c r="I41" s="28"/>
-      <c r="J41" s="51"/>
+      <c r="J41" s="39"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
@@ -2964,7 +3157,7 @@
         <v>31</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>32</v>
@@ -2977,7 +3170,7 @@
         <f>C42*H42</f>
         <v>0</v>
       </c>
-      <c r="J42" s="36"/>
+      <c r="J42" s="35"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
@@ -2997,7 +3190,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="9"/>
       <c r="I43" s="10"/>
-      <c r="J43" s="36"/>
+      <c r="J43" s="35"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
@@ -3015,7 +3208,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="9"/>
       <c r="I44" s="10"/>
-      <c r="J44" s="36"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
@@ -3035,7 +3228,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="9"/>
       <c r="I45" s="10"/>
-      <c r="J45" s="36"/>
+      <c r="J45" s="35"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="33" t="s">
@@ -3049,7 +3242,7 @@
       <c r="G46" s="23"/>
       <c r="H46" s="23"/>
       <c r="I46" s="23"/>
-      <c r="J46" s="52"/>
+      <c r="J46" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3074,13 +3267,22 @@
     <hyperlink ref="J22" r:id="rId4" xr:uid="{649BD4EC-2CFA-4544-B257-E830C8FD7F61}"/>
     <hyperlink ref="J24" r:id="rId5" xr:uid="{48495359-6427-44C9-8974-3238D9609C04}"/>
     <hyperlink ref="J25" r:id="rId6" xr:uid="{781ABC3E-EC35-40EF-8378-F1E51E95D4E6}"/>
+    <hyperlink ref="J27" r:id="rId7" xr:uid="{15EE3186-DEA7-4CC8-97C7-7B1B642F4F40}"/>
+    <hyperlink ref="J26" r:id="rId8" xr:uid="{F9E68464-621F-4257-A574-A1248DFCFB87}"/>
+    <hyperlink ref="J29" r:id="rId9" xr:uid="{84DDDD7E-153B-4EF0-9649-4C19918E599A}"/>
+    <hyperlink ref="J31" r:id="rId10" xr:uid="{FFEB1921-3B17-49EC-BA40-25160D063317}"/>
+    <hyperlink ref="J33" r:id="rId11" xr:uid="{8EA15E05-44CE-4C50-8DB1-8A5160DA6620}"/>
+    <hyperlink ref="J23" r:id="rId12" xr:uid="{2924FE31-A07A-4838-9E85-4E72137C61A8}"/>
+    <hyperlink ref="J30" r:id="rId13" xr:uid="{9AC1282E-F7E9-4A52-878C-CB2727EEC9EB}"/>
+    <hyperlink ref="J10" r:id="rId14" xr:uid="{A3B7D8D7-E21D-44CD-8C53-5A8F82C4FE0E}"/>
+    <hyperlink ref="J28" r:id="rId15" xr:uid="{C00D592A-D571-4ACF-B430-8E558D271823}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>Seite &amp;P von &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -3122,6 +3324,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B43C678D229DE24B96AF021D9ECC855C" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="286a15b9af820f7385f31a9b54db680e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e4d44552-ddd9-4e3d-b8a8-e59f975c04d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8e82ab28fe8aa0b7727de41b6639b624" ns2:_="">
     <xsd:import namespace="e4d44552-ddd9-4e3d-b8a8-e59f975c04d6"/>
@@ -3253,12 +3461,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{866A4294-3582-458B-9610-8F865127EDC3}">
   <ds:schemaRefs>
@@ -3268,6 +3470,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A24FE4B-D46A-4FED-B08C-25D61171B1A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3F43F11-BA25-41AF-941F-8652560B293C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3283,13 +3494,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A24FE4B-D46A-4FED-B08C-25D61171B1A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Datasheets-Libs/Lixie-Uhr-Bestellliste.xlsx
+++ b/Datasheets-Libs/Lixie-Uhr-Bestellliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samir\Documents\GitHub\lixie\Datasheets-Libs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED707446-55FB-40E5-A4CA-8E4E7F2ABDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39C347D-D5E2-4734-9179-942357E49B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1845" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="102">
   <si>
     <t>Höhere technische Bundeslehr- und Versuchsanstalt Rankweil</t>
   </si>
@@ -486,6 +486,13 @@
   </si>
   <si>
     <t>708-3513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+581-CM21X5R107M06AT</t>
+  </si>
+  <si>
+    <t>https://www.mouser.at/ProductDetail/KYOCERA-AVX/CM21X5R107M06AT?qs=Znm5pLBrcAI44q2aWOSJYQ%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -1600,39 +1607,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="55" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="55" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="55" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="55" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="55" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1670,6 +1644,39 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="55" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="55" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="55" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="55" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="55" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="85">
@@ -2237,8 +2244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2253,7 +2260,7 @@
     <col min="8" max="8" width="6.140625" style="4" customWidth="1"/>
     <col min="9" max="9" width="8.28515625" style="4" customWidth="1"/>
     <col min="10" max="10" width="21.85546875" style="41" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="55"/>
+    <col min="11" max="11" width="11.42578125" style="44"/>
     <col min="12" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
@@ -2288,20 +2295,20 @@
       <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="47">
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="61">
         <f>SUM(I7:I639)</f>
-        <v>158.51000000000002</v>
-      </c>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49"/>
+        <v>200.06</v>
+      </c>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
       <c r="J3" s="38"/>
     </row>
     <row r="4" spans="1:11" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -2335,22 +2342,22 @@
       <c r="J4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="56"/>
+      <c r="K4" s="45"/>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="56"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="45"/>
     </row>
     <row r="6" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
@@ -2368,18 +2375,18 @@
       <c r="J6" s="35"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
     </row>
     <row r="8" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
@@ -2458,23 +2465,23 @@
       <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>41</v>
+      <c r="E10" s="44" t="s">
+        <v>39</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="H10" s="9">
-        <v>8.9999999999999993E-3</v>
+        <v>1.04</v>
       </c>
       <c r="I10" s="10">
-        <v>0.05</v>
+        <v>41.6</v>
       </c>
       <c r="J10" s="42" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
@@ -2510,32 +2517,32 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="46"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="60"/>
     </row>
     <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
@@ -2568,20 +2575,20 @@
       <c r="J16" s="37"/>
     </row>
     <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="47">
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="61">
         <f>SUM(I21:I655)</f>
         <v>33.559999999999995</v>
       </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="63"/>
       <c r="J17" s="38"/>
     </row>
     <row r="18" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
@@ -2617,18 +2624,18 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
@@ -2648,18 +2655,18 @@
       <c r="J20" s="35"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
     </row>
     <row r="22" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
@@ -2712,10 +2719,10 @@
       <c r="F23" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="H23" s="61">
+      <c r="H23" s="50">
         <v>2.9</v>
       </c>
       <c r="I23" s="10">
@@ -2729,31 +2736,31 @@
       <c r="A24" s="8">
         <v>4</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="63">
+      <c r="C24" s="52">
         <v>5</v>
       </c>
-      <c r="D24" s="64" t="s">
+      <c r="D24" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="64" t="s">
+      <c r="E24" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="64" t="s">
+      <c r="F24" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="64" t="s">
+      <c r="G24" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="H24" s="65">
+      <c r="H24" s="54">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I24" s="66">
+      <c r="I24" s="55">
         <v>0.05</v>
       </c>
-      <c r="J24" s="67" t="s">
+      <c r="J24" s="56" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2765,7 +2772,7 @@
         <v>47</v>
       </c>
       <c r="C25" s="12">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>48</v>
@@ -2788,7 +2795,7 @@
       <c r="J25" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="K25" s="68" t="s">
+      <c r="K25" s="57" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2800,7 +2807,7 @@
         <v>49</v>
       </c>
       <c r="C26" s="12">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>30</v>
@@ -2823,7 +2830,7 @@
       <c r="J26" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="K26" s="68" t="s">
+      <c r="K26" s="57" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2835,7 +2842,7 @@
         <v>51</v>
       </c>
       <c r="C27" s="12">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>30</v>
@@ -2858,7 +2865,7 @@
       <c r="J27" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="K27" s="68" t="s">
+      <c r="K27" s="57" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2870,7 +2877,7 @@
         <v>53</v>
       </c>
       <c r="C28" s="12">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>52</v>
@@ -2878,7 +2885,7 @@
       <c r="E28" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="57" t="s">
+      <c r="F28" s="46" t="s">
         <v>79</v>
       </c>
       <c r="G28" s="32" t="s">
@@ -2913,7 +2920,7 @@
       <c r="F29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G29" s="60" t="s">
+      <c r="G29" s="49" t="s">
         <v>87</v>
       </c>
       <c r="H29" s="9">
@@ -2922,7 +2929,7 @@
       <c r="I29" s="10">
         <v>0.48</v>
       </c>
-      <c r="J29" s="58" t="s">
+      <c r="J29" s="47" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2957,7 +2964,7 @@
       <c r="J30" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="K30" s="68" t="s">
+      <c r="K30" s="57" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2992,23 +2999,23 @@
       <c r="J31" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="K31" s="68" t="s">
+      <c r="K31" s="57" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="50" t="s">
+      <c r="A32" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
     </row>
     <row r="33" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
@@ -3029,7 +3036,7 @@
       <c r="F33" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G33" s="59" t="s">
+      <c r="G33" s="48" t="s">
         <v>93</v>
       </c>
       <c r="H33" s="9">
@@ -3043,18 +3050,18 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="46"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="60"/>
     </row>
     <row r="37" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
@@ -3315,21 +3322,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B43C678D229DE24B96AF021D9ECC855C" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="286a15b9af820f7385f31a9b54db680e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e4d44552-ddd9-4e3d-b8a8-e59f975c04d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8e82ab28fe8aa0b7727de41b6639b624" ns2:_="">
     <xsd:import namespace="e4d44552-ddd9-4e3d-b8a8-e59f975c04d6"/>
@@ -3461,24 +3453,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{866A4294-3582-458B-9610-8F865127EDC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A24FE4B-D46A-4FED-B08C-25D61171B1A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3F43F11-BA25-41AF-941F-8652560B293C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3494,4 +3484,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{866A4294-3582-458B-9610-8F865127EDC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A24FE4B-D46A-4FED-B08C-25D61171B1A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Datasheets-Libs/Lixie-Uhr-Bestellliste.xlsx
+++ b/Datasheets-Libs/Lixie-Uhr-Bestellliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samir\Documents\GitHub\lixie\Datasheets-Libs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erena\OneDrive\Dokumente\GitHub\lixie\Datasheets-Libs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39C347D-D5E2-4734-9179-942357E49B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413DB8C0-4627-4968-8EF0-A5E8B66C35E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1845" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -488,11 +488,10 @@
     <t>708-3513</t>
   </si>
   <si>
-    <t xml:space="preserve">
-581-CM21X5R107M06AT</t>
-  </si>
-  <si>
-    <t>https://www.mouser.at/ProductDetail/KYOCERA-AVX/CM21X5R107M06AT?qs=Znm5pLBrcAI44q2aWOSJYQ%3D%3D</t>
+    <t>https://www.mouser.at/ProductDetail/Panasonic/EEE-FT0J101AR?qs=1Gb%2FpduDpODc%2FY5AwNOYrw%3D%3D</t>
+  </si>
+  <si>
+    <t>667-EEE-FT0J101AR</t>
   </si>
 </sst>
 </file>
@@ -2244,8 +2243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2305,7 +2304,7 @@
       <c r="F3" s="68"/>
       <c r="G3" s="61">
         <f>SUM(I7:I639)</f>
-        <v>200.06</v>
+        <v>174.14000000000001</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="63"/>
@@ -2452,7 +2451,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -2472,16 +2471,16 @@
         <v>88</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="I10" s="10">
+        <v>15.68</v>
+      </c>
+      <c r="J10" s="42" t="s">
         <v>100</v>
-      </c>
-      <c r="H10" s="9">
-        <v>1.04</v>
-      </c>
-      <c r="I10" s="10">
-        <v>41.6</v>
-      </c>
-      <c r="J10" s="42" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
@@ -3454,18 +3453,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3487,18 +3486,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{866A4294-3582-458B-9610-8F865127EDC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A24FE4B-D46A-4FED-B08C-25D61171B1A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{866A4294-3582-458B-9610-8F865127EDC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Datasheets-Libs/Lixie-Uhr-Bestellliste.xlsx
+++ b/Datasheets-Libs/Lixie-Uhr-Bestellliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erena\OneDrive\Dokumente\GitHub\lixie\Datasheets-Libs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samir El-Farfar\Documents\GitHub\lixie\Datasheets-Libs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413DB8C0-4627-4968-8EF0-A5E8B66C35E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A8F6BD-5B2E-4142-90F3-5B980DB8F744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -808,7 +808,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="56">
+  <fills count="57">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1101,6 +1101,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1491,7 +1497,7 @@
     <xf numFmtId="0" fontId="40" fillId="54" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1676,6 +1682,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="56" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="85">
@@ -2243,27 +2252,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="10" style="3" customWidth="1"/>
     <col min="7" max="7" width="19" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="41" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="44"/>
-    <col min="12" max="16384" width="11.42578125" style="2"/>
+    <col min="8" max="8" width="6.109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" style="41" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" style="44"/>
+    <col min="12" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
@@ -2279,7 +2288,7 @@
       </c>
       <c r="J1" s="37"/>
     </row>
-    <row r="2" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="17"/>
       <c r="C2" s="18"/>
@@ -2293,7 +2302,7 @@
       </c>
       <c r="J2" s="37"/>
     </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66" t="s">
         <v>62</v>
       </c>
@@ -2310,7 +2319,7 @@
       <c r="I3" s="63"/>
       <c r="J3" s="38"/>
     </row>
-    <row r="4" spans="1:11" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2343,7 +2352,7 @@
       </c>
       <c r="K4" s="45"/>
     </row>
-    <row r="5" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="64" t="s">
         <v>12</v>
       </c>
@@ -2358,7 +2367,7 @@
       <c r="J5" s="65"/>
       <c r="K5" s="45"/>
     </row>
-    <row r="6" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="1"/>
       <c r="C6" s="13"/>
@@ -2373,7 +2382,7 @@
       </c>
       <c r="J6" s="35"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="64" t="s">
         <v>13</v>
       </c>
@@ -2387,7 +2396,7 @@
       <c r="I7" s="65"/>
       <c r="J7" s="65"/>
     </row>
-    <row r="8" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -2419,7 +2428,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="66" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -2451,7 +2460,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -2483,7 +2492,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -2515,7 +2524,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="64" t="s">
         <v>14</v>
       </c>
@@ -2529,7 +2538,7 @@
       <c r="I12" s="65"/>
       <c r="J12" s="65"/>
     </row>
-    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
         <v>15</v>
       </c>
@@ -2543,7 +2552,7 @@
       <c r="I13" s="59"/>
       <c r="J13" s="60"/>
     </row>
-    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>29</v>
       </c>
@@ -2559,7 +2568,7 @@
       </c>
       <c r="J15" s="37"/>
     </row>
-    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
@@ -2573,7 +2582,7 @@
       </c>
       <c r="J16" s="37"/>
     </row>
-    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="66" t="s">
         <v>64</v>
       </c>
@@ -2590,7 +2599,7 @@
       <c r="I17" s="63"/>
       <c r="J17" s="38"/>
     </row>
-    <row r="18" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>2</v>
       </c>
@@ -2622,7 +2631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="64" t="s">
         <v>12</v>
       </c>
@@ -2636,7 +2645,7 @@
       <c r="I19" s="65"/>
       <c r="J19" s="65"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>1</v>
       </c>
@@ -2653,7 +2662,7 @@
       </c>
       <c r="J20" s="35"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="64" t="s">
         <v>13</v>
       </c>
@@ -2667,7 +2676,7 @@
       <c r="I21" s="65"/>
       <c r="J21" s="65"/>
     </row>
-    <row r="22" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>2</v>
       </c>
@@ -2677,7 +2686,7 @@
       <c r="C22" s="12">
         <v>1</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -2699,7 +2708,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>3</v>
       </c>
@@ -2731,7 +2740,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="66" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>4</v>
       </c>
@@ -2763,7 +2772,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>5</v>
       </c>
@@ -2798,7 +2807,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>6</v>
       </c>
@@ -2833,7 +2842,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>7</v>
       </c>
@@ -2868,7 +2877,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="66" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>8</v>
       </c>
@@ -2878,7 +2887,7 @@
       <c r="C28" s="12">
         <v>25</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="69" t="s">
         <v>52</v>
       </c>
       <c r="E28" s="32" t="s">
@@ -2900,7 +2909,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="66" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>9</v>
       </c>
@@ -2932,7 +2941,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>10</v>
       </c>
@@ -2967,7 +2976,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="66" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>11</v>
       </c>
@@ -3002,7 +3011,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="64" t="s">
         <v>14</v>
       </c>
@@ -3016,7 +3025,7 @@
       <c r="I32" s="65"/>
       <c r="J32" s="65"/>
     </row>
-    <row r="33" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="66" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>12</v>
       </c>
@@ -3048,7 +3057,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="58" t="s">
         <v>15</v>
       </c>
@@ -3062,7 +3071,7 @@
       <c r="I34" s="59"/>
       <c r="J34" s="60"/>
     </row>
-    <row r="37" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>29</v>
       </c>
@@ -3078,7 +3087,7 @@
       </c>
       <c r="J37" s="37"/>
     </row>
-    <row r="38" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A38" s="21"/>
       <c r="B38" s="17"/>
       <c r="C38" s="18"/>
@@ -3092,7 +3101,7 @@
       </c>
       <c r="J38" s="37"/>
     </row>
-    <row r="39" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="31" t="s">
         <v>65</v>
       </c>
@@ -3109,7 +3118,7 @@
       <c r="I39" s="26"/>
       <c r="J39" s="38"/>
     </row>
-    <row r="40" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>2</v>
       </c>
@@ -3141,7 +3150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
         <v>36</v>
       </c>
@@ -3155,7 +3164,7 @@
       <c r="I41" s="28"/>
       <c r="J41" s="39"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>1</v>
       </c>
@@ -3178,7 +3187,7 @@
       </c>
       <c r="J42" s="35"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>2</v>
       </c>
@@ -3198,7 +3207,7 @@
       <c r="I43" s="10"/>
       <c r="J43" s="35"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>3</v>
       </c>
@@ -3216,7 +3225,7 @@
       <c r="I44" s="10"/>
       <c r="J44" s="35"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>4</v>
       </c>
@@ -3236,7 +3245,7 @@
       <c r="I45" s="10"/>
       <c r="J45" s="35"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
         <v>15</v>
       </c>
@@ -3298,10 +3307,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -3312,10 +3322,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -3453,18 +3464,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3486,18 +3497,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{866A4294-3582-458B-9610-8F865127EDC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A24FE4B-D46A-4FED-B08C-25D61171B1A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{866A4294-3582-458B-9610-8F865127EDC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>